--- a/Solutions/Rapido2.0.1/Files/Files/Integration/jobs/Productos_Zanuy.xlsx
+++ b/Solutions/Rapido2.0.1/Files/Files/Integration/jobs/Productos_Zanuy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="28215" windowHeight="11955"/>
+    <workbookView xWindow="360" yWindow="570" windowWidth="28215" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EcomGroups" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="238">
   <si>
     <t>ProductId</t>
   </si>
@@ -705,12 +705,39 @@
   <si>
     <t>Images_Zanuy_Otros/group_premium.jpg</t>
   </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10009.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10010.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10011.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10012.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10013.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10014.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10015.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10016.jpg</t>
+  </si>
+  <si>
+    <t>/Images/Ecom/Products/Images_Zanuy_Products/10017.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -728,6 +755,17 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -737,7 +775,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -745,11 +783,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -792,6 +845,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1093,9 +1150,9 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1521,6 +1578,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2352,8 +2410,8 @@
   </sheetPr>
   <dimension ref="A1:Y1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2362,7 +2420,8 @@
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="11" width="4.42578125" customWidth="1"/>
+    <col min="9" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="54.42578125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
@@ -2459,7 +2518,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="6">
         <v>100</v>
@@ -2511,11 +2570,11 @@
       <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" s="6">
         <v>100</v>
@@ -2569,7 +2628,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6">
         <v>100</v>
@@ -2620,7 +2679,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="6">
         <v>100</v>
@@ -2674,7 +2733,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="6">
         <v>100</v>
@@ -2732,7 +2791,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="6">
         <v>100</v>
@@ -2772,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="20.25" customHeight="1">
+    <row r="8" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -2786,7 +2845,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="6">
         <v>100</v>
@@ -2826,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="20.25" customHeight="1">
+    <row r="9" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -2840,20 +2899,20 @@
         <v>33</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="6">
         <v>100</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="19" t="s">
         <v>86</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -2882,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="20.25" customHeight="1">
+    <row r="10" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -2896,21 +2955,21 @@
         <v>42</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>86</v>
+      <c r="I10" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>47</v>
@@ -2936,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="20.25" customHeight="1">
+    <row r="11" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -2950,21 +3009,21 @@
         <v>42</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" s="6">
         <v>100</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>86</v>
+      <c r="I11" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>47</v>
@@ -2990,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="20.25" customHeight="1">
+    <row r="12" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>91</v>
       </c>
@@ -3004,21 +3063,21 @@
         <v>42</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="6">
         <v>100</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>86</v>
+      <c r="I12" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>47</v>
@@ -3041,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="20.25" customHeight="1">
+    <row r="13" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
@@ -3055,21 +3114,21 @@
         <v>42</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="6">
         <v>100</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>86</v>
+      <c r="I13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>47</v>
@@ -3095,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="20.25" customHeight="1">
+    <row r="14" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>95</v>
       </c>
@@ -3109,21 +3168,21 @@
         <v>42</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="6">
         <v>100</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>86</v>
+      <c r="I14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>47</v>
@@ -3148,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20.25" customHeight="1">
+    <row r="15" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -3162,21 +3221,21 @@
         <v>44</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="6">
         <v>100</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>86</v>
+      <c r="I15" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>47</v>
@@ -3198,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20.25" customHeight="1">
+    <row r="16" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>99</v>
       </c>
@@ -3212,21 +3271,21 @@
         <v>44</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>86</v>
+      <c r="I16" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>47</v>
@@ -3252,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="20.25" customHeight="1">
+    <row r="17" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
@@ -3266,21 +3325,21 @@
         <v>44</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="6">
         <v>100</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>86</v>
+      <c r="I17" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>47</v>
@@ -3306,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="20.25" customHeight="1">
+    <row r="18" spans="1:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
@@ -3320,21 +3379,21 @@
         <v>48</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="6">
         <v>100</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>86</v>
+      <c r="I18" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>47</v>
@@ -3370,7 +3429,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F19" s="6">
         <v>100</v>
@@ -3422,7 +3481,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="6">
         <v>100</v>
@@ -3474,7 +3533,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="6">
         <v>100</v>
@@ -3526,7 +3585,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="6">
         <v>100</v>
@@ -3578,7 +3637,7 @@
         <v>50</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="6">
         <v>100</v>
@@ -3630,7 +3689,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="6">
         <v>100</v>
@@ -3679,7 +3738,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F25" s="6">
         <v>100</v>
@@ -3731,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="6">
         <v>100</v>
@@ -3783,7 +3842,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="6">
         <v>100</v>
@@ -3835,7 +3894,7 @@
         <v>56</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F28" s="6">
         <v>100</v>
@@ -3887,7 +3946,7 @@
         <v>56</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F29" s="6">
         <v>100</v>
@@ -3939,7 +3998,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F30" s="6">
         <v>100</v>
@@ -3988,7 +4047,7 @@
         <v>56</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F31" s="6">
         <v>100</v>
@@ -4037,7 +4096,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="6">
         <v>100</v>
@@ -4085,7 +4144,7 @@
         <v>52</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="6">
         <v>100</v>
@@ -4139,7 +4198,7 @@
         <v>62</v>
       </c>
       <c r="E34" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F34" s="6">
         <v>100</v>
@@ -4192,7 +4251,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="6">
         <v>100</v>
@@ -4243,7 +4302,7 @@
         <v>62</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F36" s="6">
         <v>100</v>
@@ -4296,7 +4355,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F37" s="6">
         <v>100</v>
@@ -4347,7 +4406,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F38" s="6">
         <v>100</v>
@@ -4404,7 +4463,7 @@
         <v>66</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F39" s="6">
         <v>100</v>
@@ -4459,7 +4518,7 @@
         <v>66</v>
       </c>
       <c r="E40" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F40" s="6">
         <v>100</v>
@@ -30654,5 +30713,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Solutions/Rapido2.0.1/Files/Files/Integration/jobs/Productos_Zanuy.xlsx
+++ b/Solutions/Rapido2.0.1/Files/Files/Integration/jobs/Productos_Zanuy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="244">
   <si>
     <t>ProductId</t>
   </si>
@@ -630,76 +630,9 @@
     <t>GroupDescription</t>
   </si>
   <si>
-    <t>Las auténticas Tortillas Chips, fabricadas con maíz molido a la piedra, al más puro estilo mejicano</t>
-  </si>
-  <si>
-    <t>Diferentes formatos para cada ocasión. Regálate una verdadera cena Tex-mex!</t>
-  </si>
-  <si>
-    <t>Prepara una auténtica cena mexicana en un plis plas con nuestro Kit de Fajitas o disfruta del viaje, de tu película favorita o de unos momentos de descanso con nuestros Combos de nachos &amp; salsa, listos para consumir en cualquier momento y ocasión.</t>
-  </si>
-  <si>
-    <t>Prepara o acompaña tus platos con un toque multicultural.
-El Pan de Gamba (Prawn Crackers) es un plato tradicional de la cocina indonesa y china en forma de snack.</t>
-  </si>
-  <si>
-    <t>Prueba nuestras salsas para dipear: con tropezones, con un toque picante, cremosas…tú eliges!</t>
-  </si>
-  <si>
-    <t>Para aderezar tus platos tex-mex.</t>
-  </si>
-  <si>
-    <t>Enrolla nuestras Tortillas y descubre un concepto nuevo y fresco de pan para bocadillos, sándwiches y enrollados!</t>
-  </si>
-  <si>
-    <t>Los auténticos! El maíz frito por excelencia. Fantásticos y crujientes!</t>
-  </si>
-  <si>
-    <t>En formato individual.Fabricados con maíz molido a la piedra, al más puro estilo mejicano.</t>
-  </si>
-  <si>
     <t>ctaImage</t>
   </si>
   <si>
-    <t>Images_Zanuy_Otros/group_texmex.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_tortillachips.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_tortillastrigo.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_kitscombo.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_ethnics.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_salsas.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_complementos.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_wrapsrolls.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_wraps.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_snacks.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_kikos.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_nachos.jpg</t>
-  </si>
-  <si>
-    <t>Images_Zanuy_Otros/group_premium.jpg</t>
-  </si>
-  <si>
     <t>/Images/Ecom/Products/Images_Zanuy_Products/10009.jpg</t>
   </si>
   <si>
@@ -776,6 +709,45 @@
   </si>
   <si>
     <t>Sin Gluten.&lt;br&gt;Con aceite de girasol.&lt;br&gt;Halal.&lt;br&gt;Con 10% de Chia</t>
+  </si>
+  <si>
+    <t>Las auténticas Tortillas Chips, fabricadas con maíz molido a la piedra, al más puro estilo mejicano.&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Diferentes formatos para cada ocasión. Regálate una verdadera cena Tex-mex!&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Prepara una auténtica cena mexicana en un plis plas con nuestro Kit de Fajitas o disfruta del viaje, de tu película favorita o de unos momentos de descanso con nuestros Combos de nachos &amp; salsa, listos para consumir en cualquier momento y ocasión.&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Prepara o acompaña tus platos con un toque multicultural.&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Prueba nuestras salsas para dipear: con tropezones, con un toque picante, cremosas…tú eliges!&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Para aderezar tus platos tex-mex.&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Enrolla nuestras Tortillas y descubre un concepto nuevo y fresco de pan para bocadillos, sándwiches y enrollados!&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Los auténticos! El maíz frito por excelencia. Fantásticos y crujientes!&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>En formato individual. Fabricados con maíz molido a la piedra, al más puro estilo mejicano.&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Descripción de Complementos.&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Descripción de Tex-Mex &amp; Ethnics. &lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Descripción de Wraps &amp; Rolls.&lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
+  </si>
+  <si>
+    <t>Descripción de Snacks. &lt;br&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque placerat lectus sit amet magna vehicula volutpat. Vestibulum maximus elit egestas est semper vestibulum. Fusce posuere nibh tellus, ut mollis ante posuere a. Nullam vehicula imperdiet nibh, sit amet pharetra neque porta sit amet.</t>
   </si>
 </sst>
 </file>
@@ -825,14 +797,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -842,6 +810,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,7 +1114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1164,8 +1135,8 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>213</v>
+      <c r="E1" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>31</v>
@@ -1176,7 +1147,7 @@
       <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1191,9 +1162,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
@@ -1202,6 +1171,9 @@
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
@@ -1217,9 +1189,7 @@
       <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
@@ -1229,8 +1199,8 @@
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>204</v>
+      <c r="I3" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -1246,9 +1216,7 @@
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1258,8 +1226,8 @@
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>205</v>
+      <c r="I4" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
@@ -1275,9 +1243,7 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1287,8 +1253,8 @@
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>206</v>
+      <c r="I5" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -1304,9 +1270,7 @@
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1316,8 +1280,8 @@
       <c r="H6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>207</v>
+      <c r="I6" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
@@ -1333,9 +1297,7 @@
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1345,8 +1307,8 @@
       <c r="H7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>208</v>
+      <c r="I7" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -1362,9 +1324,7 @@
       <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="1" t="b">
         <v>1</v>
       </c>
@@ -1374,8 +1334,8 @@
       <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>209</v>
+      <c r="I8" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
@@ -1389,9 +1349,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1401,7 +1359,9 @@
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="7" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -1416,9 +1376,7 @@
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="1" t="b">
         <v>1</v>
       </c>
@@ -1428,8 +1386,8 @@
       <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>210</v>
+      <c r="I10" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
@@ -1443,9 +1401,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="1" t="b">
         <v>1</v>
       </c>
@@ -1454,6 +1410,9 @@
       </c>
       <c r="H11" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -1469,9 +1428,7 @@
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="1" t="b">
         <v>1</v>
       </c>
@@ -1481,8 +1438,8 @@
       <c r="H12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>211</v>
+      <c r="I12" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
@@ -1498,9 +1455,7 @@
       <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="1" t="b">
         <v>1</v>
       </c>
@@ -1510,8 +1465,8 @@
       <c r="H13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>212</v>
+      <c r="I13" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
@@ -1527,9 +1482,7 @@
       <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="1" t="b">
         <v>1</v>
       </c>
@@ -1538,6 +1491,9 @@
       </c>
       <c r="H14" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2375,1978 +2331,1979 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="495" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="495" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="6"/>
-    <col min="2" max="2" width="25.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="3.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="63.140625" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="54.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="14.42578125" style="6"/>
+    <col min="1" max="1" width="14.42578125" style="4"/>
+    <col min="2" max="2" width="25.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="3.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="63.140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="4.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="54.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6">
-        <v>100</v>
-      </c>
-      <c r="F2" s="6">
-        <v>100</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>200</v>
       </c>
-      <c r="N2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" s="6" t="b">
+      <c r="N2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6">
-        <v>100</v>
-      </c>
-      <c r="F3" s="6">
-        <v>100</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>200</v>
       </c>
-      <c r="N3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6" t="b">
+      <c r="N3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6">
-        <v>100</v>
-      </c>
-      <c r="F4" s="6">
-        <v>100</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="E4" s="4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>200</v>
       </c>
-      <c r="N4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6" t="b">
+      <c r="N4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6">
-        <v>100</v>
-      </c>
-      <c r="F5" s="6">
-        <v>100</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>200</v>
       </c>
-      <c r="N5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="b">
+      <c r="N5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="6">
-        <v>100</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>125</v>
       </c>
-      <c r="M6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" s="6" t="b">
+      <c r="M6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6">
-        <v>100</v>
-      </c>
-      <c r="F7" s="6">
-        <v>100</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="4">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>100</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="4">
+        <v>454</v>
+      </c>
+      <c r="N8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="4">
+        <v>200</v>
+      </c>
+      <c r="N9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="4">
+        <v>320</v>
+      </c>
+      <c r="O10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4">
+        <v>100</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="4">
+        <v>320</v>
+      </c>
+      <c r="O11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4">
+        <v>100</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="4">
+        <v>375</v>
+      </c>
+      <c r="P12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="4">
+        <v>175</v>
+      </c>
+      <c r="O13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="4">
+        <v>320</v>
+      </c>
+      <c r="O14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" s="4">
+        <v>490</v>
+      </c>
+      <c r="P15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4">
+        <v>100</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="4">
+        <v>180</v>
+      </c>
+      <c r="N16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="4">
+        <v>180</v>
+      </c>
+      <c r="N17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="4">
+        <v>50</v>
+      </c>
+      <c r="P18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="4">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4">
+        <v>100</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="4">
+        <v>315</v>
+      </c>
+      <c r="N19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4">
+        <v>100</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="4">
+        <v>300</v>
+      </c>
+      <c r="N20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4">
+        <v>100</v>
+      </c>
+      <c r="F21" s="4">
+        <v>100</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="4">
+        <v>300</v>
+      </c>
+      <c r="N21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4">
+        <v>100</v>
+      </c>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="4">
+        <v>200</v>
+      </c>
+      <c r="N22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4">
+        <v>100</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="4">
+        <v>200</v>
+      </c>
+      <c r="N23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="4">
+        <v>190</v>
+      </c>
+      <c r="N24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4">
+        <v>100</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="4">
+        <v>90</v>
+      </c>
+      <c r="N25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4">
+        <v>100</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="4">
+        <v>90</v>
+      </c>
+      <c r="N26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4">
+        <v>100</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="4">
         <v>240</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="P27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4">
+        <v>100</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="4">
+        <v>240</v>
+      </c>
+      <c r="P28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4">
+        <v>100</v>
+      </c>
+      <c r="F29" s="4">
+        <v>100</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="4">
+        <v>240</v>
+      </c>
+      <c r="P29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="4">
+        <v>100</v>
+      </c>
+      <c r="F30" s="4">
+        <v>100</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100</v>
+      </c>
+      <c r="F31" s="4">
+        <v>100</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="4">
+        <v>100</v>
+      </c>
+      <c r="F32" s="4">
+        <v>100</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="4">
+        <v>35</v>
+      </c>
+      <c r="N32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="4">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>100</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="4">
+        <v>225</v>
+      </c>
+      <c r="N33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="4">
+        <v>100</v>
+      </c>
+      <c r="F34" s="4">
+        <v>100</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" s="4">
+        <v>40</v>
+      </c>
+      <c r="N34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="4">
+        <v>100</v>
+      </c>
+      <c r="F35" s="4">
+        <v>100</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="4">
+        <v>40</v>
+      </c>
+      <c r="N35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="4">
+        <v>100</v>
+      </c>
+      <c r="F36" s="4">
+        <v>100</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L36" s="4">
+        <v>130</v>
+      </c>
+      <c r="N36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="4">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4">
+        <v>100</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" s="4">
+        <v>130</v>
+      </c>
+      <c r="N37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="4">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4">
+        <v>100</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L38" s="4">
         <v>45</v>
       </c>
-      <c r="N7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6">
-        <v>100</v>
-      </c>
-      <c r="F8" s="6">
-        <v>100</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="6">
-        <v>454</v>
-      </c>
-      <c r="N8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6">
-        <v>100</v>
-      </c>
-      <c r="F9" s="6">
-        <v>100</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="6">
-        <v>200</v>
-      </c>
-      <c r="N9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="6">
-        <v>100</v>
-      </c>
-      <c r="F10" s="6">
-        <v>100</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="6">
-        <v>320</v>
-      </c>
-      <c r="O10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="6">
-        <v>100</v>
-      </c>
-      <c r="F11" s="6">
-        <v>100</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" s="6">
-        <v>320</v>
-      </c>
-      <c r="O11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6">
-        <v>100</v>
-      </c>
-      <c r="F12" s="6">
-        <v>100</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="N38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="4">
+        <v>100</v>
+      </c>
+      <c r="F39" s="4">
+        <v>100</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" s="6">
-        <v>375</v>
-      </c>
-      <c r="P12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="6">
-        <v>100</v>
-      </c>
-      <c r="F13" s="6">
-        <v>100</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="I39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L39" s="4">
+        <v>65</v>
+      </c>
+      <c r="O39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="4">
+        <v>100</v>
+      </c>
+      <c r="F40" s="4">
+        <v>100</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="6">
-        <v>175</v>
-      </c>
-      <c r="O13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="6">
-        <v>100</v>
-      </c>
-      <c r="F14" s="6">
-        <v>100</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="L14" s="6">
-        <v>320</v>
-      </c>
-      <c r="O14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S14" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="6">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6">
-        <v>100</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="L15" s="6">
-        <v>490</v>
-      </c>
-      <c r="P15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6">
-        <v>100</v>
-      </c>
-      <c r="F16" s="6">
-        <v>100</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="L16" s="6">
-        <v>180</v>
-      </c>
-      <c r="N16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="6">
-        <v>100</v>
-      </c>
-      <c r="F17" s="6">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="L17" s="6">
-        <v>180</v>
-      </c>
-      <c r="N17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="6">
-        <v>100</v>
-      </c>
-      <c r="F18" s="6">
-        <v>100</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L18" s="6">
-        <v>50</v>
-      </c>
-      <c r="P18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="6">
-        <v>315</v>
-      </c>
-      <c r="N19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S19" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="6">
-        <v>100</v>
-      </c>
-      <c r="F20" s="6">
-        <v>100</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="6">
-        <v>300</v>
-      </c>
-      <c r="N20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6">
-        <v>100</v>
-      </c>
-      <c r="F21" s="6">
-        <v>100</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="6">
-        <v>300</v>
-      </c>
-      <c r="N21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6">
-        <v>100</v>
-      </c>
-      <c r="F22" s="6">
-        <v>100</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="6">
-        <v>200</v>
-      </c>
-      <c r="N22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S22" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="6">
-        <v>100</v>
-      </c>
-      <c r="F23" s="6">
-        <v>100</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="6">
-        <v>200</v>
-      </c>
-      <c r="N23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S23" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="6">
-        <v>100</v>
-      </c>
-      <c r="F24" s="6">
-        <v>100</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="6">
-        <v>190</v>
-      </c>
-      <c r="N24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S24" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="6">
-        <v>100</v>
-      </c>
-      <c r="F25" s="6">
-        <v>100</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L25" s="6">
-        <v>90</v>
-      </c>
-      <c r="N25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="6">
-        <v>100</v>
-      </c>
-      <c r="F26" s="6">
-        <v>100</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L26" s="6">
-        <v>90</v>
-      </c>
-      <c r="N26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S26" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="6">
-        <v>100</v>
-      </c>
-      <c r="F27" s="6">
-        <v>100</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L27" s="6">
-        <v>240</v>
-      </c>
-      <c r="P27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S27" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A28" s="6" t="s">
+      <c r="I40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" s="4">
         <v>130</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="6">
-        <v>100</v>
-      </c>
-      <c r="F28" s="6">
-        <v>100</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="6">
-        <v>240</v>
-      </c>
-      <c r="P28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S28" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="6">
-        <v>100</v>
-      </c>
-      <c r="F29" s="6">
-        <v>100</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29" s="6">
-        <v>240</v>
-      </c>
-      <c r="P29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S29" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="6">
-        <v>100</v>
-      </c>
-      <c r="F30" s="6">
-        <v>100</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S30" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="6">
-        <v>100</v>
-      </c>
-      <c r="F31" s="6">
-        <v>100</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="P31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="6">
-        <v>100</v>
-      </c>
-      <c r="F32" s="6">
-        <v>100</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L32" s="6">
-        <v>35</v>
-      </c>
-      <c r="N32" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S32" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="6">
-        <v>100</v>
-      </c>
-      <c r="F33" s="6">
-        <v>100</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" s="6">
-        <v>225</v>
-      </c>
-      <c r="N33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S33" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="6">
-        <v>100</v>
-      </c>
-      <c r="F34" s="6">
-        <v>100</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L34" s="6">
-        <v>40</v>
-      </c>
-      <c r="N34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S34" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="6">
-        <v>100</v>
-      </c>
-      <c r="F35" s="6">
-        <v>100</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L35" s="6">
-        <v>40</v>
-      </c>
-      <c r="N35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S35" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="6">
-        <v>100</v>
-      </c>
-      <c r="F36" s="6">
-        <v>100</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L36" s="6">
-        <v>130</v>
-      </c>
-      <c r="N36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S36" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="6">
-        <v>100</v>
-      </c>
-      <c r="F37" s="6">
-        <v>100</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="L37" s="6">
-        <v>130</v>
-      </c>
-      <c r="N37" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R37" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S37" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="6">
-        <v>100</v>
-      </c>
-      <c r="F38" s="6">
-        <v>100</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="L38" s="6">
-        <v>45</v>
-      </c>
-      <c r="N38" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P38" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R38" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S38" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="6">
-        <v>100</v>
-      </c>
-      <c r="F39" s="6">
-        <v>100</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="L39" s="6">
-        <v>65</v>
-      </c>
-      <c r="O39" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T39" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U39" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V39" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W39" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="6">
-        <v>100</v>
-      </c>
-      <c r="F40" s="6">
-        <v>100</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L40" s="6">
-        <v>130</v>
-      </c>
-      <c r="N40" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V40" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X40" s="6">
+      <c r="N40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" s="4">
         <v>10</v>
       </c>
     </row>
